--- a/Users.xlsx
+++ b/Users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>index_no</t>
   </si>
@@ -41,40 +41,79 @@
     <t>email</t>
   </si>
   <si>
-    <t>vindy</t>
-  </si>
-  <si>
-    <t>sanuka</t>
-  </si>
-  <si>
     <t>987199388V</t>
   </si>
   <si>
-    <t>v@gmail.com</t>
-  </si>
-  <si>
-    <t>vindy2</t>
-  </si>
-  <si>
-    <t>986699342V</t>
-  </si>
-  <si>
-    <t>vb@gmail.com</t>
-  </si>
-  <si>
-    <t>sdkfsfm</t>
-  </si>
-  <si>
-    <t>kim</t>
-  </si>
-  <si>
-    <t>wexler</t>
-  </si>
-  <si>
-    <t>566692380V</t>
-  </si>
-  <si>
-    <t>kim@gmail.com</t>
+    <t>19A0001</t>
+  </si>
+  <si>
+    <t>19B0002</t>
+  </si>
+  <si>
+    <t>20A0001</t>
+  </si>
+  <si>
+    <t>20B0002</t>
+  </si>
+  <si>
+    <t>21A0001</t>
+  </si>
+  <si>
+    <t>21B0002</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>NTS</t>
+  </si>
+  <si>
+    <t>987199389V</t>
+  </si>
+  <si>
+    <t>987299388V</t>
+  </si>
+  <si>
+    <t>987399388V</t>
+  </si>
+  <si>
+    <t>987499388V</t>
+  </si>
+  <si>
+    <t>987599388V</t>
+  </si>
+  <si>
+    <t>student1@gmail.com</t>
+  </si>
+  <si>
+    <t>student2@gmail.com</t>
+  </si>
+  <si>
+    <t>student3@gmail.com</t>
+  </si>
+  <si>
+    <t>student4@gmail.com</t>
+  </si>
+  <si>
+    <t>student5@gmail.com</t>
+  </si>
+  <si>
+    <t>student6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -403,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,63 +477,118 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>180004</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1700</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E3:E7" r:id="rId2" display="student11@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
